--- a/aug_pc_result/2026_Jan_21_12_23_36_d_separation_spearman_pc_gt_graph_AdaSyn_100_3708554/results.xlsx
+++ b/aug_pc_result/2026_Jan_21_12_23_36_d_separation_spearman_pc_gt_graph_AdaSyn_100_3708554/results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -740,7 +740,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
